--- a/pred_ohlcv/54/2019-10-19 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 STRAT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -426,6 +431,9 @@
         <v>376.3833333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -452,6 +460,9 @@
         <v>376.4166666666667</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -478,6 +489,9 @@
         <v>376.4166666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -504,6 +518,9 @@
         <v>376.45</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -532,6 +549,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -558,6 +578,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +607,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -610,6 +636,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -636,6 +665,9 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -662,6 +694,9 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -688,6 +723,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -714,6 +752,9 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -740,6 +781,9 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -766,6 +810,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -792,6 +839,9 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -818,6 +868,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -844,6 +897,9 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -870,6 +926,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -896,6 +955,9 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -922,6 +984,9 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -948,6 +1013,9 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -974,550 +1042,7 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>389</v>
-      </c>
-      <c r="C24" t="n">
-        <v>384</v>
-      </c>
-      <c r="D24" t="n">
-        <v>389</v>
-      </c>
-      <c r="E24" t="n">
-        <v>384</v>
-      </c>
-      <c r="F24" t="n">
-        <v>98.83110000000001</v>
-      </c>
-      <c r="G24" t="n">
-        <v>378.5166666666667</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>385</v>
-      </c>
-      <c r="C25" t="n">
-        <v>385</v>
-      </c>
-      <c r="D25" t="n">
-        <v>385</v>
-      </c>
-      <c r="E25" t="n">
-        <v>385</v>
-      </c>
-      <c r="F25" t="n">
-        <v>177.3</v>
-      </c>
-      <c r="G25" t="n">
-        <v>378.6833333333333</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>386</v>
-      </c>
-      <c r="C26" t="n">
-        <v>386</v>
-      </c>
-      <c r="D26" t="n">
-        <v>386</v>
-      </c>
-      <c r="E26" t="n">
-        <v>386</v>
-      </c>
-      <c r="F26" t="n">
-        <v>78.10980000000001</v>
-      </c>
-      <c r="G26" t="n">
-        <v>378.8833333333333</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>385</v>
-      </c>
-      <c r="C27" t="n">
-        <v>384</v>
-      </c>
-      <c r="D27" t="n">
-        <v>385</v>
-      </c>
-      <c r="E27" t="n">
-        <v>384</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3141.3701</v>
-      </c>
-      <c r="G27" t="n">
-        <v>379.0333333333334</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>386</v>
-      </c>
-      <c r="C28" t="n">
-        <v>386</v>
-      </c>
-      <c r="D28" t="n">
-        <v>386</v>
-      </c>
-      <c r="E28" t="n">
-        <v>386</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>379.2</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>386</v>
-      </c>
-      <c r="C29" t="n">
-        <v>385</v>
-      </c>
-      <c r="D29" t="n">
-        <v>386</v>
-      </c>
-      <c r="E29" t="n">
-        <v>385</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
-      </c>
-      <c r="G29" t="n">
-        <v>379.35</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>385</v>
-      </c>
-      <c r="C30" t="n">
-        <v>385</v>
-      </c>
-      <c r="D30" t="n">
-        <v>385</v>
-      </c>
-      <c r="E30" t="n">
-        <v>385</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
-      </c>
-      <c r="G30" t="n">
-        <v>379.5</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>385</v>
-      </c>
-      <c r="C31" t="n">
-        <v>383</v>
-      </c>
-      <c r="D31" t="n">
-        <v>385</v>
-      </c>
-      <c r="E31" t="n">
-        <v>383</v>
-      </c>
-      <c r="F31" t="n">
-        <v>343.1503</v>
-      </c>
-      <c r="G31" t="n">
-        <v>379.6166666666667</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>388</v>
-      </c>
-      <c r="C32" t="n">
-        <v>388</v>
-      </c>
-      <c r="D32" t="n">
-        <v>388</v>
-      </c>
-      <c r="E32" t="n">
-        <v>388</v>
-      </c>
-      <c r="F32" t="n">
-        <v>62.804</v>
-      </c>
-      <c r="G32" t="n">
-        <v>379.8</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>388</v>
-      </c>
-      <c r="C33" t="n">
-        <v>388</v>
-      </c>
-      <c r="D33" t="n">
-        <v>388</v>
-      </c>
-      <c r="E33" t="n">
-        <v>388</v>
-      </c>
-      <c r="F33" t="n">
-        <v>70.7478</v>
-      </c>
-      <c r="G33" t="n">
-        <v>379.9833333333333</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>387</v>
-      </c>
-      <c r="C34" t="n">
-        <v>387</v>
-      </c>
-      <c r="D34" t="n">
-        <v>387</v>
-      </c>
-      <c r="E34" t="n">
-        <v>387</v>
-      </c>
-      <c r="F34" t="n">
-        <v>15.3431</v>
-      </c>
-      <c r="G34" t="n">
-        <v>380.1666666666667</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>387</v>
-      </c>
-      <c r="C35" t="n">
-        <v>383</v>
-      </c>
-      <c r="D35" t="n">
-        <v>387</v>
-      </c>
-      <c r="E35" t="n">
-        <v>383</v>
-      </c>
-      <c r="F35" t="n">
-        <v>42.2701</v>
-      </c>
-      <c r="G35" t="n">
-        <v>380.2833333333334</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>383</v>
-      </c>
-      <c r="C36" t="n">
-        <v>383</v>
-      </c>
-      <c r="D36" t="n">
-        <v>383</v>
-      </c>
-      <c r="E36" t="n">
-        <v>383</v>
-      </c>
-      <c r="F36" t="n">
-        <v>63.8784</v>
-      </c>
-      <c r="G36" t="n">
-        <v>380.4</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>387</v>
-      </c>
-      <c r="C37" t="n">
-        <v>387</v>
-      </c>
-      <c r="D37" t="n">
-        <v>387</v>
-      </c>
-      <c r="E37" t="n">
-        <v>387</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>380.5833333333333</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>383</v>
-      </c>
-      <c r="C38" t="n">
-        <v>383</v>
-      </c>
-      <c r="D38" t="n">
-        <v>383</v>
-      </c>
-      <c r="E38" t="n">
-        <v>383</v>
-      </c>
-      <c r="F38" t="n">
-        <v>29.1826</v>
-      </c>
-      <c r="G38" t="n">
-        <v>380.6833333333333</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>385</v>
-      </c>
-      <c r="C39" t="n">
-        <v>385</v>
-      </c>
-      <c r="D39" t="n">
-        <v>385</v>
-      </c>
-      <c r="E39" t="n">
-        <v>385</v>
-      </c>
-      <c r="F39" t="n">
-        <v>25.8177</v>
-      </c>
-      <c r="G39" t="n">
-        <v>380.8666666666667</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>385</v>
-      </c>
-      <c r="C40" t="n">
-        <v>385</v>
-      </c>
-      <c r="D40" t="n">
-        <v>385</v>
-      </c>
-      <c r="E40" t="n">
-        <v>385</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="n">
-        <v>381.0666666666667</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>385</v>
-      </c>
-      <c r="C41" t="n">
-        <v>385</v>
-      </c>
-      <c r="D41" t="n">
-        <v>385</v>
-      </c>
-      <c r="E41" t="n">
-        <v>385</v>
-      </c>
-      <c r="F41" t="n">
-        <v>7</v>
-      </c>
-      <c r="G41" t="n">
-        <v>381.2166666666666</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>385</v>
-      </c>
-      <c r="C42" t="n">
-        <v>385</v>
-      </c>
-      <c r="D42" t="n">
-        <v>385</v>
-      </c>
-      <c r="E42" t="n">
-        <v>385</v>
-      </c>
-      <c r="F42" t="n">
-        <v>24.268</v>
-      </c>
-      <c r="G42" t="n">
-        <v>381.4</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>383</v>
-      </c>
-      <c r="C43" t="n">
-        <v>383</v>
-      </c>
-      <c r="D43" t="n">
-        <v>383</v>
-      </c>
-      <c r="E43" t="n">
-        <v>383</v>
-      </c>
-      <c r="F43" t="n">
-        <v>20.4123</v>
-      </c>
-      <c r="G43" t="n">
-        <v>381.5166666666667</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>383</v>
-      </c>
-      <c r="C44" t="n">
-        <v>385</v>
-      </c>
-      <c r="D44" t="n">
-        <v>385</v>
-      </c>
-      <c r="E44" t="n">
-        <v>382</v>
-      </c>
-      <c r="F44" t="n">
-        <v>531</v>
-      </c>
-      <c r="G44" t="n">
-        <v>381.7333333333333</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
